--- a/All_genera_Sapindaceae–24oct2020_SB.xlsx
+++ b/All_genera_Sapindaceae–24oct2020_SB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svenbuerki/Documents/Current_projects/Sapindaceae_phylogenomics/MS/Angio353_Sapindaceae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFBEC6A-E173-F749-B248-97B254F1D598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8C8FB2-D07F-B64F-85AC-BF677C4AB09C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="1220" windowWidth="38400" windowHeight="17540" activeTab="2" xr2:uid="{D1733FCB-F082-C341-B4A0-8FE5983883A9}"/>
   </bookViews>
@@ -5541,8 +5541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0C1AE1-972F-2F48-BDA3-FA323DC1B9AD}">
   <dimension ref="A1:Z146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
